--- a/doors-detector/results/house20_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
+++ b/doors-detector/results/house20_experimentk_ordered_CriterionType.MIN_CriterionSorting.GROWING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7056354820667829</v>
+        <v>0.6862999983443339</v>
       </c>
       <c r="F2" t="n">
         <v>870</v>
       </c>
       <c r="G2" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H2" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4374630174469971</v>
+        <v>0.4132129456540882</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6083730108816564</v>
+        <v>0.6008962936209675</v>
       </c>
       <c r="F4" t="n">
         <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7016583055107616</v>
+        <v>0.7377329228600087</v>
       </c>
       <c r="F5" t="n">
         <v>870</v>
       </c>
       <c r="G5" t="n">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="H5" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6082411466597429</v>
+        <v>0.665304517016951</v>
       </c>
       <c r="F6" t="n">
         <v>65</v>
@@ -632,7 +632,7 @@
         <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6400635041865145</v>
+        <v>0.6824470620196905</v>
       </c>
       <c r="F7" t="n">
         <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7089417937408075</v>
+        <v>0.7610108394358478</v>
       </c>
       <c r="F8" t="n">
         <v>870</v>
       </c>
       <c r="G8" t="n">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="H8" t="n">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5996381612976778</v>
+        <v>0.6679203962478957</v>
       </c>
       <c r="F9" t="n">
         <v>65</v>
@@ -728,7 +728,7 @@
         <v>47</v>
       </c>
       <c r="H9" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7062836528634959</v>
+        <v>0.7573543007537427</v>
       </c>
       <c r="F10" t="n">
         <v>91</v>
       </c>
       <c r="G10" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H10" t="n">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7212244078020961</v>
+        <v>0.7455584155871573</v>
       </c>
       <c r="F11" t="n">
         <v>870</v>
       </c>
       <c r="G11" t="n">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="H11" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6831232512755353</v>
+        <v>0.6931056685862148</v>
       </c>
       <c r="F12" t="n">
         <v>65</v>
@@ -824,7 +824,7 @@
         <v>51</v>
       </c>
       <c r="H12" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7105276221840008</v>
+        <v>0.7089797116894897</v>
       </c>
       <c r="F13" t="n">
         <v>91</v>
       </c>
       <c r="G13" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7438814911491314</v>
+        <v>0.73957911358432</v>
       </c>
       <c r="F14" t="n">
         <v>870</v>
       </c>
       <c r="G14" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H14" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7098901329871916</v>
+        <v>0.730099384863887</v>
       </c>
       <c r="F15" t="n">
         <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H15" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6812267759763202</v>
+        <v>0.7232915599944111</v>
       </c>
       <c r="F16" t="n">
         <v>91</v>
       </c>
       <c r="G16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7479482748009751</v>
+        <v>0.7176287814395662</v>
       </c>
       <c r="F17" t="n">
         <v>870</v>
       </c>
       <c r="G17" t="n">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="H17" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7188845216012768</v>
+        <v>0.7662709345004496</v>
       </c>
       <c r="F18" t="n">
         <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7120091051928541</v>
+        <v>0.7542061803489287</v>
       </c>
       <c r="F19" t="n">
         <v>91</v>
       </c>
       <c r="G19" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H19" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
